--- a/thread_strength/summarized_data/integral_treatment.xlsx
+++ b/thread_strength/summarized_data/integral_treatment.xlsx
@@ -23,7 +23,7 @@
     <t xml:space="preserve">auc</t>
   </si>
   <si>
-    <t xml:space="preserve">T94</t>
+    <t xml:space="preserve">T94_</t>
   </si>
   <si>
     <t xml:space="preserve">03</t>

--- a/thread_strength/summarized_data/integral_treatment.xlsx
+++ b/thread_strength/summarized_data/integral_treatment.xlsx
@@ -1,40 +1,323 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\OneDrive\Desktop\Threads\PSMFC-mytilus-byssus-pilot\thread_strength\summarized_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D2F72C-7FD4-414A-8D13-7A60446AB774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="7200" yWindow="3225" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t xml:space="preserve">mussel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T94_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="97">
+  <si>
+    <t>mussel</t>
+  </si>
+  <si>
+    <t>thread</t>
+  </si>
+  <si>
+    <t>auc</t>
+  </si>
+  <si>
+    <t>defa</t>
+  </si>
+  <si>
+    <t>lt</t>
+  </si>
+  <si>
+    <t>G013</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>G014</t>
+  </si>
+  <si>
+    <t>G015</t>
+  </si>
+  <si>
+    <t>G016</t>
+  </si>
+  <si>
+    <t>G017</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>G018</t>
+  </si>
+  <si>
+    <t>G020</t>
+  </si>
+  <si>
+    <t>G021</t>
+  </si>
+  <si>
+    <t>G024</t>
+  </si>
+  <si>
+    <t>G026</t>
+  </si>
+  <si>
+    <t>G071</t>
+  </si>
+  <si>
+    <t>G072</t>
+  </si>
+  <si>
+    <t>G073</t>
+  </si>
+  <si>
+    <t>G074</t>
+  </si>
+  <si>
+    <t>G075</t>
+  </si>
+  <si>
+    <t>G076</t>
+  </si>
+  <si>
+    <t>G077</t>
+  </si>
+  <si>
+    <t>G078</t>
+  </si>
+  <si>
+    <t>G079</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>G081</t>
+  </si>
+  <si>
+    <t>G082</t>
+  </si>
+  <si>
+    <t>G083</t>
+  </si>
+  <si>
+    <t>G084</t>
+  </si>
+  <si>
+    <t>G085</t>
+  </si>
+  <si>
+    <t>G086</t>
+  </si>
+  <si>
+    <t>G087</t>
+  </si>
+  <si>
+    <t>G088</t>
+  </si>
+  <si>
+    <t>T014</t>
+  </si>
+  <si>
+    <t>T015</t>
+  </si>
+  <si>
+    <t>T016</t>
+  </si>
+  <si>
+    <t>T017</t>
+  </si>
+  <si>
+    <t>T019</t>
+  </si>
+  <si>
+    <t>T021</t>
+  </si>
+  <si>
+    <t>T023</t>
+  </si>
+  <si>
+    <t>T025</t>
+  </si>
+  <si>
+    <t>T026</t>
+  </si>
+  <si>
+    <t>T027</t>
+  </si>
+  <si>
+    <t>T029</t>
+  </si>
+  <si>
+    <t>T030</t>
+  </si>
+  <si>
+    <t>T031</t>
+  </si>
+  <si>
+    <t>T033</t>
+  </si>
+  <si>
+    <t>T034</t>
+  </si>
+  <si>
+    <t>T035</t>
+  </si>
+  <si>
+    <t>T036</t>
+  </si>
+  <si>
+    <t>T037</t>
+  </si>
+  <si>
+    <t>T038</t>
+  </si>
+  <si>
+    <t>T039</t>
+  </si>
+  <si>
+    <t>T040</t>
+  </si>
+  <si>
+    <t>T041</t>
+  </si>
+  <si>
+    <t>T042</t>
+  </si>
+  <si>
+    <t>T046</t>
+  </si>
+  <si>
+    <t>T047</t>
+  </si>
+  <si>
+    <t>T049</t>
+  </si>
+  <si>
+    <t>T051</t>
+  </si>
+  <si>
+    <t>T052</t>
+  </si>
+  <si>
+    <t>T055</t>
+  </si>
+  <si>
+    <t>T056</t>
+  </si>
+  <si>
+    <t>T057</t>
+  </si>
+  <si>
+    <t>T058</t>
+  </si>
+  <si>
+    <t>T089</t>
+  </si>
+  <si>
+    <t>T090</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>T091</t>
+  </si>
+  <si>
+    <t>T092</t>
+  </si>
+  <si>
+    <t>T093</t>
+  </si>
+  <si>
+    <t>T094</t>
+  </si>
+  <si>
+    <t>T118</t>
+  </si>
+  <si>
+    <t>T119</t>
+  </si>
+  <si>
+    <t>T120</t>
+  </si>
+  <si>
+    <t>T121</t>
+  </si>
+  <si>
+    <t>T122</t>
+  </si>
+  <si>
+    <t>T123</t>
+  </si>
+  <si>
+    <t>T124</t>
+  </si>
+  <si>
+    <t>T125</t>
+  </si>
+  <si>
+    <t>T126</t>
+  </si>
+  <si>
+    <t>T127</t>
+  </si>
+  <si>
+    <t>T128</t>
+  </si>
+  <si>
+    <t>T129</t>
+  </si>
+  <si>
+    <t>T130</t>
+  </si>
+  <si>
+    <t>T131</t>
+  </si>
+  <si>
+    <t>T132</t>
+  </si>
+  <si>
+    <t>T133</t>
+  </si>
+  <si>
+    <t>T134</t>
+  </si>
+  <si>
+    <t>T135</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -70,6 +353,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -351,14 +643,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F229"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -368,20 +662,2526 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.136973975626504</v>
+      <c r="C2">
+        <v>7.1760664812590094E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>0.271206346285775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0.41781877005374302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0.58561987421524497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>0.20553722047057699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>2.3797305367154301E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.39387657339391402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0.654220027238827</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>0.114090058364453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>1.1177823253261501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>0.18207994146321499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>0.120591332368451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.135332793621527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>0.33740259481129298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.118280822881035</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>0.464760663393817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>0.90639512644526199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>1.1649651000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>0.41033790806451598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>0.395045894184955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>0.364008912174411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>7.1666486543238594E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>0.143466304821221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>3.8672389489959103E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>0.26348664136829097</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>0.21455666265149101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>0.19523809428284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>0.30246952542552702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>7.8604490372857994E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>0.202931737862835</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>5.8174941313370102E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>0.18625021450571899</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>6.2445036488791697E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>0.44345484179681199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>0.157001792393276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>0.175558002444165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>0.74601530712486797</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>5.9432572316807E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>7.9609302564102397E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>0.14293494678204999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>0.21028375966481899</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>0.24396353846153801</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>0.39738575718326002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>0.16744220856229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>9.7594173540616599E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>4.56346478731635E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>6.7959083093155806E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>7.2768549329082E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>6.7602194447394903E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>0.75938856815858902</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>0.121407276727814</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>0.106767654963139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>0.74202798423185801</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55">
+        <v>0.48904261501322799</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>0.39692575353398302</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>0.52354736517068501</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>0.79311770338676701</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>0.15336358281242399</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>0.30790506238502202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>0.34281072353552899</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>5.9280455339704101E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>3.9301992623483301E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64">
+        <v>0.11965977442010001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>0.85778000653195496</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>0.15183901292442301</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>0.45758039427663399</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>3.7785008101364002E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>9.7669317166234504E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>0.70772924501852497</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <v>0.233283925651985</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>0.12329490146935</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>0.82547570591716002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74">
+        <v>0.60389602720000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>0.37260292738784501</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>0.24412878134051799</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>0.13996957374013699</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>0.73041979127538803</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>0.24096482781065101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <v>0.19078524522906201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>4.7829439808670798E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <v>1.60727912516422</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>0.21237162158394701</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>0.27942967563971299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85">
+        <v>5.4917041087909201E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>41</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>0.31426907128048698</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>0.12819486641816899</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>9.1386390243902493E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <v>0.216389235135135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>1.6923572166482399</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>8.0756167488511804E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>44</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <v>0.63727571597339405</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>44</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>0.34880586604226299</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>5.4188989450119802E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>45</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <v>0.105241345371119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>45</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <v>8.7149927795955803E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>0.12329344585987299</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>46</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98">
+        <v>1.8560677090909099</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>46</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>0.118069319815112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>0.189058973102841</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>47</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101">
+        <v>5.1784265280733703E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>47</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102">
+        <v>0.11081432197713401</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>47</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103">
+        <v>5.4021580124283201E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>47</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104">
+        <v>0.15716739868469601</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>48</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105">
+        <v>0.42473575843550798</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>48</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106">
+        <v>8.0562518378646794E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>48</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107">
+        <v>0.41314969839043902</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>49</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108">
+        <v>0.149076244886094</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>49</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109">
+        <v>0.87550539642005598</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>49</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110">
+        <v>8.1459075862069005E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>50</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111">
+        <v>0.55245234214286099</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>50</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112">
+        <v>0.16691093120964101</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>51</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113">
+        <v>0.14517854052252899</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>51</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114">
+        <v>0.16669796109842899</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>51</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115">
+        <v>0.22139956320992901</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>52</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116">
+        <v>0.140477640289356</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>52</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117">
+        <v>4.3984112447082099E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>53</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118">
+        <v>0.30540731641990998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>53</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119">
+        <v>0.30211758492419899</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>53</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120">
+        <v>0.192544231075538</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>54</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121">
+        <v>0.37284461702725802</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>54</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122">
+        <v>1.4716209660355299E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>54</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123">
+        <v>0.201815666147388</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>55</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124">
+        <v>7.7599020285095202E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>55</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125">
+        <v>0.41376788839358902</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>55</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>0.84939826734132495</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>56</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127">
+        <v>0.47911862322867799</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>56</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128">
+        <v>0.14220300008112399</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>56</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129">
+        <v>0.19124788380164601</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>57</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130">
+        <v>0.17601997734137101</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>57</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131">
+        <v>9.4921172465544101E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>57</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132">
+        <v>7.7264101835848101E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>58</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133">
+        <v>0.15447235761446801</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>59</v>
+      </c>
+      <c r="B134" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134">
+        <v>1.0637608243358601</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>59</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135">
+        <v>0.14299364076322901</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>59</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136">
+        <v>0.27855231269169101</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>59</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137">
+        <v>0.23522473184583101</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>60</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138">
+        <v>0.114878838347139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>60</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139">
+        <v>0.13747225759058099</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>60</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140">
+        <v>0.126801012790698</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>61</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141">
+        <v>5.66006806165925E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>61</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142">
+        <v>4.8402458127208399E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>61</v>
+      </c>
+      <c r="B143" t="s">
+        <v>28</v>
+      </c>
+      <c r="C143">
+        <v>6.5059345521944395E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>62</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144">
+        <v>8.75751892151478E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>62</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145">
+        <v>7.6802706189629394E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>62</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146">
+        <v>8.0141742406347E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>63</v>
+      </c>
+      <c r="B147" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147">
+        <v>4.2540095841646301E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>64</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148">
+        <v>0.12793785832999399</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>64</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149">
+        <v>0.42238244702625799</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>65</v>
+      </c>
+      <c r="B150" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150">
+        <v>0.32586773547724202</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>65</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151">
+        <v>0.27156342661190802</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>66</v>
+      </c>
+      <c r="B152" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152">
+        <v>0.14767953624161101</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>66</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153">
+        <v>0.20793488679265801</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>66</v>
+      </c>
+      <c r="B154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154">
+        <v>0.105296621314472</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>67</v>
+      </c>
+      <c r="B155" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155">
+        <v>0.190106240206666</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>67</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156">
+        <v>0.117614668563967</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>67</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157">
+        <v>0.229678413209251</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>68</v>
+      </c>
+      <c r="B158" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158">
+        <v>0.12395586888749301</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>69</v>
+      </c>
+      <c r="B159" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159">
+        <v>0.26851307307543298</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>69</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160">
+        <v>0.108243620974226</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>69</v>
+      </c>
+      <c r="B161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161">
+        <v>0.18842032842138801</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>70</v>
+      </c>
+      <c r="B162" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162">
+        <v>0.38059041508453101</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>70</v>
+      </c>
+      <c r="B163" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163">
+        <v>0.93683794142918397</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>70</v>
+      </c>
+      <c r="B164" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164">
+        <v>0.435776558843324</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>70</v>
+      </c>
+      <c r="B165" t="s">
+        <v>28</v>
+      </c>
+      <c r="C165">
+        <v>0.14219768042115299</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>70</v>
+      </c>
+      <c r="B166" t="s">
+        <v>71</v>
+      </c>
+      <c r="C166">
+        <v>0.81730892020130896</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>72</v>
+      </c>
+      <c r="B167" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167">
+        <v>0.32724136670978599</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>72</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168">
+        <v>6.6911444740678894E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>72</v>
+      </c>
+      <c r="B169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169">
+        <v>6.0574658450704297E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>73</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170">
+        <v>9.6940620666805796E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>73</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171">
+        <v>0.33813662579528397</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>73</v>
+      </c>
+      <c r="B172" t="s">
+        <v>28</v>
+      </c>
+      <c r="C172">
+        <v>5.0896413428565997E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>74</v>
+      </c>
+      <c r="B173" t="s">
+        <v>6</v>
+      </c>
+      <c r="C173">
+        <v>0.12621964554964499</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>74</v>
+      </c>
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174">
+        <v>0.57629571076984698</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>74</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175">
+        <v>0.32754069436001298</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>75</v>
+      </c>
+      <c r="B176" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176">
+        <v>9.9421615807169697E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>75</v>
+      </c>
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177">
+        <v>0.16324094588041799</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>75</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178">
+        <v>0.13697397562650401</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>76</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179">
+        <v>0.171310303912457</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>76</v>
+      </c>
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180">
+        <v>0.150987301134276</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>77</v>
+      </c>
+      <c r="B181" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181">
+        <v>1.2378066348557399</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>77</v>
+      </c>
+      <c r="B182" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182">
+        <v>0.20560479522804301</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>77</v>
+      </c>
+      <c r="B183" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183">
+        <v>8.7571709346801502E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>78</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184">
+        <v>4.3320231785489098E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>79</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185">
+        <v>8.5334202976339396E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>79</v>
+      </c>
+      <c r="B186" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186">
+        <v>4.4931189257360199E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>79</v>
+      </c>
+      <c r="B187" t="s">
+        <v>28</v>
+      </c>
+      <c r="C187">
+        <v>9.8649791556520899E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>80</v>
+      </c>
+      <c r="B188" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188">
+        <v>8.1003303249458994E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>80</v>
+      </c>
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189">
+        <v>0.111535962033185</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>80</v>
+      </c>
+      <c r="B190" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190">
+        <v>0.12183269420362799</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>81</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191">
+        <v>0.17252699115449699</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>81</v>
+      </c>
+      <c r="B192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192">
+        <v>9.7676098054407301E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>81</v>
+      </c>
+      <c r="B193" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193">
+        <v>0.104622736499078</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>82</v>
+      </c>
+      <c r="B194" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194">
+        <v>0.20452700570764801</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>82</v>
+      </c>
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195">
+        <v>0.33691383600304597</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>83</v>
+      </c>
+      <c r="B196" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196">
+        <v>2.6338285145266101E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>83</v>
+      </c>
+      <c r="B197" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197">
+        <v>0.282237984330381</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>84</v>
+      </c>
+      <c r="B198" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198">
+        <v>0.16645798952857799</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>84</v>
+      </c>
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199">
+        <v>0.160406861052619</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>85</v>
+      </c>
+      <c r="B200" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200">
+        <v>7.7298080661571594E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>85</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201">
+        <v>0.143324065527586</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>85</v>
+      </c>
+      <c r="B202" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202">
+        <v>5.7505113079979298E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>86</v>
+      </c>
+      <c r="B203" t="s">
+        <v>6</v>
+      </c>
+      <c r="C203">
+        <v>0.54926627708224496</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>86</v>
+      </c>
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204">
+        <v>0.13561072233142901</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>86</v>
+      </c>
+      <c r="B205" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205">
+        <v>0.278247535886671</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>87</v>
+      </c>
+      <c r="B206" t="s">
+        <v>6</v>
+      </c>
+      <c r="C206">
+        <v>0.59567342700159498</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>87</v>
+      </c>
+      <c r="B207" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207">
+        <v>0.365919079459952</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>87</v>
+      </c>
+      <c r="B208" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208">
+        <v>0.86657824818461104</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>88</v>
+      </c>
+      <c r="B209" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209">
+        <v>0.21788871316658301</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>88</v>
+      </c>
+      <c r="B210" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210">
+        <v>0.22898164771936</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>88</v>
+      </c>
+      <c r="B211" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211">
+        <v>0.32934192400988199</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>89</v>
+      </c>
+      <c r="B212" t="s">
+        <v>6</v>
+      </c>
+      <c r="C212">
+        <v>0.38126484034347502</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>89</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213">
+        <v>0.110441793382808</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>89</v>
+      </c>
+      <c r="B214" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214">
+        <v>2.5012743414009799E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>89</v>
+      </c>
+      <c r="B215" t="s">
+        <v>13</v>
+      </c>
+      <c r="C215">
+        <v>0.40615960913389199</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>89</v>
+      </c>
+      <c r="B216" t="s">
+        <v>28</v>
+      </c>
+      <c r="C216">
+        <v>0.62700905137751195</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>90</v>
+      </c>
+      <c r="B217" t="s">
+        <v>6</v>
+      </c>
+      <c r="C217">
+        <v>0.67014738800584905</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>90</v>
+      </c>
+      <c r="B218" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218">
+        <v>0.99485878065605604</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>91</v>
+      </c>
+      <c r="B219" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219">
+        <v>0.32831936970139602</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>91</v>
+      </c>
+      <c r="B220" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220">
+        <v>0.587140429162466</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>91</v>
+      </c>
+      <c r="B221" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221">
+        <v>8.6810556338535003E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>92</v>
+      </c>
+      <c r="B222" t="s">
+        <v>6</v>
+      </c>
+      <c r="C222">
+        <v>0.550113049704955</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>92</v>
+      </c>
+      <c r="B223" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223">
+        <v>0.15631056846677899</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>92</v>
+      </c>
+      <c r="B224" t="s">
+        <v>13</v>
+      </c>
+      <c r="C224">
+        <v>0.117836310849112</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>92</v>
+      </c>
+      <c r="B225" t="s">
+        <v>28</v>
+      </c>
+      <c r="C225">
+        <v>0.14141506543679</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>92</v>
+      </c>
+      <c r="B226" t="s">
+        <v>28</v>
+      </c>
+      <c r="C226">
+        <v>0.20345540769230799</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>93</v>
+      </c>
+      <c r="B227" t="s">
+        <v>6</v>
+      </c>
+      <c r="C227">
+        <v>0.49167304832568598</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>93</v>
+      </c>
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228">
+        <v>0.19189636902613699</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>93</v>
+      </c>
+      <c r="B229" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229">
+        <v>8.0736022974121802E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/thread_strength/summarized_data/integral_treatment.xlsx
+++ b/thread_strength/summarized_data/integral_treatment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\OneDrive\Desktop\Threads\PSMFC-mytilus-byssus-pilot\thread_strength\summarized_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D2F72C-7FD4-414A-8D13-7A60446AB774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E80F87-9AF4-46D8-A565-61E2DCCFA9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3225" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="3180" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="105">
   <si>
     <t>mussel</t>
   </si>
@@ -311,6 +311,30 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Might just scrap this </t>
+  </si>
+  <si>
+    <t>Scrap. Looks like a bump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questionable </t>
+  </si>
+  <si>
+    <t>Scrap</t>
+  </si>
+  <si>
+    <t>Questionable</t>
+  </si>
+  <si>
+    <t>4 or 5</t>
+  </si>
+  <si>
+    <t>Probably scrap</t>
+  </si>
+  <si>
+    <t>Take another look. Maybe scrap</t>
   </si>
 </sst>
 </file>
@@ -346,8 +370,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,11 +671,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="F217" sqref="F217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="38.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -704,6 +732,15 @@
       <c r="C4">
         <v>0.41781877005374302</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -737,6 +774,9 @@
       <c r="C7">
         <v>2.3797305367154301E-2</v>
       </c>
+      <c r="F7" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -748,6 +788,9 @@
       <c r="C8">
         <v>0.39387657339391402</v>
       </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -837,7 +880,7 @@
         <v>0.118280822881035</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -848,7 +891,7 @@
         <v>0.464760663393817</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -859,7 +902,7 @@
         <v>0.90639512644526199</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -870,7 +913,7 @@
         <v>1.1649651000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -881,7 +924,7 @@
         <v>0.41033790806451598</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -892,7 +935,7 @@
         <v>0.395045894184955</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -903,7 +946,7 @@
         <v>0.364008912174411</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -914,7 +957,7 @@
         <v>7.1666486543238594E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -925,7 +968,7 @@
         <v>0.143466304821221</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -935,8 +978,11 @@
       <c r="C25">
         <v>3.8672389489959103E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -947,7 +993,7 @@
         <v>0.26348664136829097</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -958,7 +1004,7 @@
         <v>0.21455666265149101</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -969,7 +1015,7 @@
         <v>0.19523809428284</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -980,7 +1026,7 @@
         <v>0.30246952542552702</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -991,7 +1037,7 @@
         <v>7.8604490372857994E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -1002,7 +1048,7 @@
         <v>0.202931737862835</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -1013,7 +1059,7 @@
         <v>5.8174941313370102E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -1024,7 +1070,7 @@
         <v>0.18625021450571899</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1034,8 +1080,11 @@
       <c r="C34">
         <v>6.2445036488791697E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -1046,7 +1095,7 @@
         <v>0.44345484179681199</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -1056,8 +1105,14 @@
       <c r="C36">
         <v>0.157001792393276</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -1068,7 +1123,7 @@
         <v>0.175558002444165</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -1079,7 +1134,7 @@
         <v>0.74601530712486797</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -1089,8 +1144,11 @@
       <c r="C39">
         <v>5.9432572316807E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -1100,8 +1158,11 @@
       <c r="C40">
         <v>7.9609302564102397E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -1112,7 +1173,7 @@
         <v>0.14293494678204999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -1123,7 +1184,7 @@
         <v>0.21028375966481899</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -1134,7 +1195,7 @@
         <v>0.24396353846153801</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -1145,7 +1206,7 @@
         <v>0.39738575718326002</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -1155,8 +1216,14 @@
       <c r="C45">
         <v>0.16744220856229</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -1166,8 +1233,11 @@
       <c r="C46">
         <v>9.7594173540616599E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -1177,8 +1247,11 @@
       <c r="C47">
         <v>4.56346478731635E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -1188,8 +1261,14 @@
       <c r="C48">
         <v>6.7959083093155806E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -1200,7 +1279,7 @@
         <v>7.2768549329082E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -1210,8 +1289,17 @@
       <c r="C50">
         <v>6.7602194447394903E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -1222,7 +1310,7 @@
         <v>0.75938856815858902</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -1233,7 +1321,7 @@
         <v>0.121407276727814</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -1244,7 +1332,7 @@
         <v>0.106767654963139</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -1255,7 +1343,7 @@
         <v>0.74202798423185801</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -1266,7 +1354,7 @@
         <v>0.48904261501322799</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>29</v>
       </c>
@@ -1277,7 +1365,7 @@
         <v>0.39692575353398302</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -1288,7 +1376,7 @@
         <v>0.52354736517068501</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -1299,7 +1387,7 @@
         <v>0.79311770338676701</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -1310,7 +1398,7 @@
         <v>0.15336358281242399</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -1321,7 +1409,7 @@
         <v>0.30790506238502202</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>31</v>
       </c>
@@ -1332,7 +1420,7 @@
         <v>0.34281072353552899</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -1343,7 +1431,7 @@
         <v>5.9280455339704101E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>31</v>
       </c>
@@ -1353,8 +1441,11 @@
       <c r="C63">
         <v>3.9301992623483301E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -1541,7 +1632,7 @@
         <v>0.19078524522906201</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>39</v>
       </c>
@@ -1551,8 +1642,11 @@
       <c r="C81">
         <v>4.7829439808670798E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>40</v>
       </c>
@@ -1563,7 +1657,7 @@
         <v>1.60727912516422</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>40</v>
       </c>
@@ -1574,7 +1668,7 @@
         <v>0.21237162158394701</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -1585,7 +1679,7 @@
         <v>0.27942967563971299</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>41</v>
       </c>
@@ -1596,7 +1690,7 @@
         <v>5.4917041087909201E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>41</v>
       </c>
@@ -1607,7 +1701,7 @@
         <v>0.31426907128048698</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>41</v>
       </c>
@@ -1618,7 +1712,7 @@
         <v>0.12819486641816899</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>42</v>
       </c>
@@ -1629,7 +1723,7 @@
         <v>9.1386390243902493E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>43</v>
       </c>
@@ -1640,7 +1734,7 @@
         <v>0.216389235135135</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>43</v>
       </c>
@@ -1651,7 +1745,7 @@
         <v>1.6923572166482399</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>43</v>
       </c>
@@ -1662,7 +1756,7 @@
         <v>8.0756167488511804E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>44</v>
       </c>
@@ -1673,7 +1767,7 @@
         <v>0.63727571597339405</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>44</v>
       </c>
@@ -1684,7 +1778,7 @@
         <v>0.34880586604226299</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>44</v>
       </c>
@@ -1694,8 +1788,14 @@
       <c r="C94">
         <v>5.4188989450119802E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>45</v>
       </c>
@@ -1706,7 +1806,7 @@
         <v>0.105241345371119</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>45</v>
       </c>
@@ -1716,8 +1816,14 @@
       <c r="C96">
         <v>8.7149927795955803E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>45</v>
       </c>
@@ -1727,8 +1833,14 @@
       <c r="C97">
         <v>0.12329344585987299</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>46</v>
       </c>
@@ -1739,7 +1851,7 @@
         <v>1.8560677090909099</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>46</v>
       </c>
@@ -1749,8 +1861,14 @@
       <c r="C99">
         <v>0.118069319815112</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>15</v>
+      </c>
+      <c r="E99">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>46</v>
       </c>
@@ -1760,8 +1878,11 @@
       <c r="C100">
         <v>0.189058973102841</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>47</v>
       </c>
@@ -1771,8 +1892,11 @@
       <c r="C101">
         <v>5.1784265280733703E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>47</v>
       </c>
@@ -1783,7 +1907,7 @@
         <v>0.11081432197713401</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>47</v>
       </c>
@@ -1793,8 +1917,11 @@
       <c r="C103">
         <v>5.4021580124283201E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F103" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>47</v>
       </c>
@@ -1804,8 +1931,14 @@
       <c r="C104">
         <v>0.15716739868469601</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>4</v>
+      </c>
+      <c r="E104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>48</v>
       </c>
@@ -1816,7 +1949,7 @@
         <v>0.42473575843550798</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>48</v>
       </c>
@@ -1826,8 +1959,14 @@
       <c r="C106">
         <v>8.0562518378646794E-2</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>3</v>
+      </c>
+      <c r="E106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>48</v>
       </c>
@@ -1838,7 +1977,7 @@
         <v>0.41314969839043902</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>49</v>
       </c>
@@ -1849,7 +1988,7 @@
         <v>0.149076244886094</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>49</v>
       </c>
@@ -1859,8 +1998,11 @@
       <c r="C109">
         <v>0.87550539642005598</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F109" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>49</v>
       </c>
@@ -1871,7 +2013,7 @@
         <v>8.1459075862069005E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>50</v>
       </c>
@@ -1882,7 +2024,7 @@
         <v>0.55245234214286099</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>50</v>
       </c>
@@ -1892,8 +2034,14 @@
       <c r="C112">
         <v>0.16691093120964101</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>51</v>
       </c>
@@ -1903,8 +2051,14 @@
       <c r="C113">
         <v>0.14517854052252899</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>51</v>
       </c>
@@ -1914,8 +2068,14 @@
       <c r="C114">
         <v>0.16669796109842899</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>51</v>
       </c>
@@ -1925,8 +2085,14 @@
       <c r="C115">
         <v>0.22139956320992901</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>52</v>
       </c>
@@ -1937,7 +2103,7 @@
         <v>0.140477640289356</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>52</v>
       </c>
@@ -1948,7 +2114,7 @@
         <v>4.3984112447082099E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>53</v>
       </c>
@@ -1959,7 +2125,7 @@
         <v>0.30540731641990998</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>53</v>
       </c>
@@ -1970,7 +2136,7 @@
         <v>0.30211758492419899</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>53</v>
       </c>
@@ -1981,7 +2147,7 @@
         <v>0.192544231075538</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>54</v>
       </c>
@@ -1992,7 +2158,7 @@
         <v>0.37284461702725802</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>54</v>
       </c>
@@ -2002,8 +2168,11 @@
       <c r="C122">
         <v>1.4716209660355299E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>54</v>
       </c>
@@ -2014,7 +2183,7 @@
         <v>0.201815666147388</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>55</v>
       </c>
@@ -2025,7 +2194,7 @@
         <v>7.7599020285095202E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>55</v>
       </c>
@@ -2036,7 +2205,7 @@
         <v>0.41376788839358902</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>55</v>
       </c>
@@ -2047,7 +2216,7 @@
         <v>0.84939826734132495</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>56</v>
       </c>
@@ -2058,7 +2227,7 @@
         <v>0.47911862322867799</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>56</v>
       </c>
@@ -2069,7 +2238,7 @@
         <v>0.14220300008112399</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>56</v>
       </c>
@@ -2080,7 +2249,7 @@
         <v>0.19124788380164601</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>57</v>
       </c>
@@ -2090,8 +2259,14 @@
       <c r="C130">
         <v>0.17601997734137101</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>11</v>
+      </c>
+      <c r="E130">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>57</v>
       </c>
@@ -2101,8 +2276,11 @@
       <c r="C131">
         <v>9.4921172465544101E-2</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>57</v>
       </c>
@@ -2112,8 +2290,11 @@
       <c r="C132">
         <v>7.7264101835848101E-2</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F132" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>58</v>
       </c>
@@ -2123,8 +2304,14 @@
       <c r="C133">
         <v>0.15447235761446801</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>11</v>
+      </c>
+      <c r="E133">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>59</v>
       </c>
@@ -2134,8 +2321,11 @@
       <c r="C134">
         <v>1.0637608243358601</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F134" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>59</v>
       </c>
@@ -2146,7 +2336,7 @@
         <v>0.14299364076322901</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>59</v>
       </c>
@@ -2157,7 +2347,7 @@
         <v>0.27855231269169101</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>59</v>
       </c>
@@ -2167,8 +2357,14 @@
       <c r="C137">
         <v>0.23522473184583101</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>12</v>
+      </c>
+      <c r="E137">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>60</v>
       </c>
@@ -2178,8 +2374,14 @@
       <c r="C138">
         <v>0.114878838347139</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>6</v>
+      </c>
+      <c r="E138">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>60</v>
       </c>
@@ -2189,8 +2391,14 @@
       <c r="C139">
         <v>0.13747225759058099</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>6</v>
+      </c>
+      <c r="E139">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>60</v>
       </c>
@@ -2201,7 +2409,7 @@
         <v>0.126801012790698</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>61</v>
       </c>
@@ -2211,8 +2419,14 @@
       <c r="C141">
         <v>5.66006806165925E-2</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <v>8</v>
+      </c>
+      <c r="E141">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>61</v>
       </c>
@@ -2222,8 +2436,11 @@
       <c r="C142">
         <v>4.8402458127208399E-2</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F142" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>61</v>
       </c>
@@ -2233,8 +2450,11 @@
       <c r="C143">
         <v>6.5059345521944395E-2</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F143" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>62</v>
       </c>
@@ -2245,7 +2465,7 @@
         <v>8.75751892151478E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>62</v>
       </c>
@@ -2255,8 +2475,11 @@
       <c r="C145">
         <v>7.6802706189629394E-2</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F145" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>62</v>
       </c>
@@ -2266,8 +2489,11 @@
       <c r="C146">
         <v>8.0141742406347E-2</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F146" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>63</v>
       </c>
@@ -2277,8 +2503,11 @@
       <c r="C147">
         <v>4.2540095841646301E-2</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F147" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>64</v>
       </c>
@@ -2289,7 +2518,7 @@
         <v>0.12793785832999399</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>64</v>
       </c>
@@ -2300,7 +2529,7 @@
         <v>0.42238244702625799</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>65</v>
       </c>
@@ -2311,7 +2540,7 @@
         <v>0.32586773547724202</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>65</v>
       </c>
@@ -2322,7 +2551,7 @@
         <v>0.27156342661190802</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>66</v>
       </c>
@@ -2333,7 +2562,7 @@
         <v>0.14767953624161101</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>66</v>
       </c>
@@ -2344,7 +2573,7 @@
         <v>0.20793488679265801</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>66</v>
       </c>
@@ -2354,8 +2583,14 @@
       <c r="C154">
         <v>0.105296621314472</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>67</v>
       </c>
@@ -2366,7 +2601,7 @@
         <v>0.190106240206666</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>67</v>
       </c>
@@ -2377,7 +2612,7 @@
         <v>0.117614668563967</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>67</v>
       </c>
@@ -2388,7 +2623,7 @@
         <v>0.229678413209251</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>68</v>
       </c>
@@ -2399,7 +2634,7 @@
         <v>0.12395586888749301</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>69</v>
       </c>
@@ -2410,7 +2645,7 @@
         <v>0.26851307307543298</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>69</v>
       </c>
@@ -2421,7 +2656,7 @@
         <v>0.108243620974226</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>69</v>
       </c>
@@ -2432,7 +2667,7 @@
         <v>0.18842032842138801</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>70</v>
       </c>
@@ -2443,7 +2678,7 @@
         <v>0.38059041508453101</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>70</v>
       </c>
@@ -2454,7 +2689,7 @@
         <v>0.93683794142918397</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>70</v>
       </c>
@@ -2465,7 +2700,7 @@
         <v>0.435776558843324</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>70</v>
       </c>
@@ -2476,7 +2711,7 @@
         <v>0.14219768042115299</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>70</v>
       </c>
@@ -2487,7 +2722,7 @@
         <v>0.81730892020130896</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>72</v>
       </c>
@@ -2498,7 +2733,7 @@
         <v>0.32724136670978599</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>72</v>
       </c>
@@ -2508,8 +2743,14 @@
       <c r="C168">
         <v>6.6911444740678894E-2</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <v>6</v>
+      </c>
+      <c r="E168">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>72</v>
       </c>
@@ -2519,8 +2760,14 @@
       <c r="C169">
         <v>6.0574658450704297E-2</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <v>6</v>
+      </c>
+      <c r="E169">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>73</v>
       </c>
@@ -2531,7 +2778,7 @@
         <v>9.6940620666805796E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>73</v>
       </c>
@@ -2542,7 +2789,7 @@
         <v>0.33813662579528397</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>73</v>
       </c>
@@ -2552,8 +2799,11 @@
       <c r="C172">
         <v>5.0896413428565997E-2</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F172" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>74</v>
       </c>
@@ -2564,7 +2814,7 @@
         <v>0.12621964554964499</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>74</v>
       </c>
@@ -2575,7 +2825,7 @@
         <v>0.57629571076984698</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>74</v>
       </c>
@@ -2586,7 +2836,7 @@
         <v>0.32754069436001298</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>75</v>
       </c>
@@ -2597,7 +2847,7 @@
         <v>9.9421615807169697E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>75</v>
       </c>
@@ -2608,7 +2858,7 @@
         <v>0.16324094588041799</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>75</v>
       </c>
@@ -2618,8 +2868,14 @@
       <c r="C178">
         <v>0.13697397562650401</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <v>3</v>
+      </c>
+      <c r="E178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>76</v>
       </c>
@@ -2630,7 +2886,7 @@
         <v>0.171310303912457</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>76</v>
       </c>
@@ -2641,7 +2897,7 @@
         <v>0.150987301134276</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>77</v>
       </c>
@@ -2652,7 +2908,7 @@
         <v>1.2378066348557399</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>77</v>
       </c>
@@ -2663,7 +2919,7 @@
         <v>0.20560479522804301</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>77</v>
       </c>
@@ -2673,8 +2929,14 @@
       <c r="C183">
         <v>8.7571709346801502E-2</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183">
+        <v>4</v>
+      </c>
+      <c r="E183">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>78</v>
       </c>
@@ -2684,8 +2946,14 @@
       <c r="C184">
         <v>4.3320231785489098E-2</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184">
+        <v>2</v>
+      </c>
+      <c r="E184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>79</v>
       </c>
@@ -2695,8 +2963,14 @@
       <c r="C185">
         <v>8.5334202976339396E-2</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185">
+        <v>10</v>
+      </c>
+      <c r="E185">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>79</v>
       </c>
@@ -2706,8 +2980,14 @@
       <c r="C186">
         <v>4.4931189257360199E-2</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186">
+        <v>11</v>
+      </c>
+      <c r="E186">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>79</v>
       </c>
@@ -2717,8 +2997,11 @@
       <c r="C187">
         <v>9.8649791556520899E-2</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F187" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>80</v>
       </c>
@@ -2729,7 +3012,7 @@
         <v>8.1003303249458994E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>80</v>
       </c>
@@ -2740,7 +3023,7 @@
         <v>0.111535962033185</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>80</v>
       </c>
@@ -2751,7 +3034,7 @@
         <v>0.12183269420362799</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>81</v>
       </c>
@@ -2762,7 +3045,7 @@
         <v>0.17252699115449699</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>81</v>
       </c>
@@ -2773,7 +3056,7 @@
         <v>9.7676098054407301E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>81</v>
       </c>
@@ -2783,8 +3066,14 @@
       <c r="C193">
         <v>0.104622736499078</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193">
+        <v>10</v>
+      </c>
+      <c r="E193">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>82</v>
       </c>
@@ -2795,7 +3084,7 @@
         <v>0.20452700570764801</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>82</v>
       </c>
@@ -2806,7 +3095,7 @@
         <v>0.33691383600304597</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>83</v>
       </c>
@@ -2816,8 +3105,11 @@
       <c r="C196">
         <v>2.6338285145266101E-2</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F196" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>83</v>
       </c>
@@ -2828,7 +3120,7 @@
         <v>0.282237984330381</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>84</v>
       </c>
@@ -2839,7 +3131,7 @@
         <v>0.16645798952857799</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>84</v>
       </c>
@@ -2849,8 +3141,11 @@
       <c r="C199">
         <v>0.160406861052619</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F199" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>85</v>
       </c>
@@ -2860,8 +3155,14 @@
       <c r="C200">
         <v>7.7298080661571594E-2</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>85</v>
       </c>
@@ -2872,7 +3173,7 @@
         <v>0.143324065527586</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>85</v>
       </c>
@@ -2883,7 +3184,7 @@
         <v>5.7505113079979298E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>86</v>
       </c>
@@ -2894,7 +3195,7 @@
         <v>0.54926627708224496</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>86</v>
       </c>
@@ -2905,7 +3206,7 @@
         <v>0.13561072233142901</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>86</v>
       </c>
@@ -2916,7 +3217,7 @@
         <v>0.278247535886671</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>87</v>
       </c>
@@ -2927,7 +3228,7 @@
         <v>0.59567342700159498</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>87</v>
       </c>
@@ -2938,7 +3239,7 @@
         <v>0.365919079459952</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>87</v>
       </c>
@@ -2949,7 +3250,7 @@
         <v>0.86657824818461104</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>88</v>
       </c>
@@ -2960,7 +3261,7 @@
         <v>0.21788871316658301</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>88</v>
       </c>
@@ -2971,7 +3272,7 @@
         <v>0.22898164771936</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>88</v>
       </c>
@@ -2982,7 +3283,7 @@
         <v>0.32934192400988199</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>89</v>
       </c>
@@ -2993,7 +3294,7 @@
         <v>0.38126484034347502</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>89</v>
       </c>
@@ -3004,7 +3305,7 @@
         <v>0.110441793382808</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>89</v>
       </c>
@@ -3014,8 +3315,11 @@
       <c r="C214">
         <v>2.5012743414009799E-2</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F214" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>89</v>
       </c>
@@ -3026,7 +3330,7 @@
         <v>0.40615960913389199</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>89</v>
       </c>
@@ -3037,7 +3341,7 @@
         <v>0.62700905137751195</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>90</v>
       </c>
@@ -3048,7 +3352,7 @@
         <v>0.67014738800584905</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>90</v>
       </c>
@@ -3059,7 +3363,7 @@
         <v>0.99485878065605604</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>91</v>
       </c>
@@ -3070,7 +3374,7 @@
         <v>0.32831936970139602</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>91</v>
       </c>
@@ -3081,7 +3385,7 @@
         <v>0.587140429162466</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>91</v>
       </c>
@@ -3092,7 +3396,7 @@
         <v>8.6810556338535003E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>92</v>
       </c>
@@ -3103,7 +3407,7 @@
         <v>0.550113049704955</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>92</v>
       </c>
@@ -3114,7 +3418,7 @@
         <v>0.15631056846677899</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>92</v>
       </c>

--- a/thread_strength/summarized_data/integral_treatment.xlsx
+++ b/thread_strength/summarized_data/integral_treatment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\OneDrive\Desktop\Threads\PSMFC-mytilus-byssus-pilot\thread_strength\summarized_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E80F87-9AF4-46D8-A565-61E2DCCFA9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B024C843-7B48-4E8F-A32F-4EBE0D90C257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6900" yWindow="3180" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="102">
   <si>
     <t>mussel</t>
   </si>
@@ -313,28 +313,19 @@
     <t>Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">Might just scrap this </t>
-  </si>
-  <si>
     <t>Scrap. Looks like a bump</t>
   </si>
   <si>
-    <t xml:space="preserve">Questionable </t>
-  </si>
-  <si>
     <t>Scrap</t>
   </si>
   <si>
-    <t>Questionable</t>
-  </si>
-  <si>
-    <t>4 or 5</t>
-  </si>
-  <si>
-    <t>Probably scrap</t>
-  </si>
-  <si>
-    <t>Take another look. Maybe scrap</t>
+    <t>Scrap. Thread was retested.</t>
+  </si>
+  <si>
+    <t>Scrap. Thread broke</t>
+  </si>
+  <si>
+    <t>Scrap. Fail mode doesn't make sense with the graph</t>
   </si>
 </sst>
 </file>
@@ -671,13 +662,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="F217" sqref="F217"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="F236" sqref="F236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="52.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -733,13 +724,10 @@
         <v>0.41781877005374302</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -775,7 +763,7 @@
         <v>2.3797305367154301E-2</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -979,7 +967,7 @@
         <v>3.8672389489959103E-2</v>
       </c>
       <c r="F25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1080,8 +1068,11 @@
       <c r="C34">
         <v>6.2445036488791697E-2</v>
       </c>
-      <c r="F34" t="s">
-        <v>101</v>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1108,8 +1099,8 @@
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>102</v>
+      <c r="E36" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1145,7 +1136,7 @@
         <v>5.9432572316807E-2</v>
       </c>
       <c r="F39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1233,9 +1224,6 @@
       <c r="C46">
         <v>9.7594173540616599E-2</v>
       </c>
-      <c r="F46" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -1248,7 +1236,7 @@
         <v>4.56346478731635E-2</v>
       </c>
       <c r="F47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1290,13 +1278,10 @@
         <v>6.7602194447394903E-2</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>4</v>
-      </c>
-      <c r="F50" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1442,7 +1427,7 @@
         <v>3.9301992623483301E-2</v>
       </c>
       <c r="F63" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1878,9 +1863,6 @@
       <c r="C100">
         <v>0.189058973102841</v>
       </c>
-      <c r="F100" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -1893,7 +1875,7 @@
         <v>5.1784265280733703E-2</v>
       </c>
       <c r="F101" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -1918,7 +1900,7 @@
         <v>5.4021580124283201E-2</v>
       </c>
       <c r="F103" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -1999,7 +1981,7 @@
         <v>0.87550539642005598</v>
       </c>
       <c r="F109" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -2169,7 +2151,7 @@
         <v>1.4716209660355299E-2</v>
       </c>
       <c r="F122" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -2277,7 +2259,7 @@
         <v>9.4921172465544101E-2</v>
       </c>
       <c r="F131" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -2291,7 +2273,7 @@
         <v>7.7264101835848101E-2</v>
       </c>
       <c r="F132" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -2322,7 +2304,7 @@
         <v>1.0637608243358601</v>
       </c>
       <c r="F134" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -2437,7 +2419,7 @@
         <v>4.8402458127208399E-2</v>
       </c>
       <c r="F142" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -2451,7 +2433,7 @@
         <v>6.5059345521944395E-2</v>
       </c>
       <c r="F143" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -2476,7 +2458,7 @@
         <v>7.6802706189629394E-2</v>
       </c>
       <c r="F145" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -2490,7 +2472,7 @@
         <v>8.0141742406347E-2</v>
       </c>
       <c r="F146" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -2504,7 +2486,7 @@
         <v>4.2540095841646301E-2</v>
       </c>
       <c r="F147" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -2800,7 +2782,7 @@
         <v>5.0896413428565997E-2</v>
       </c>
       <c r="F172" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -2998,7 +2980,7 @@
         <v>9.8649791556520899E-2</v>
       </c>
       <c r="F187" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -3056,7 +3038,7 @@
         <v>9.7676098054407301E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>81</v>
       </c>
@@ -3073,7 +3055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>82</v>
       </c>
@@ -3084,7 +3066,7 @@
         <v>0.20452700570764801</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>82</v>
       </c>
@@ -3095,7 +3077,7 @@
         <v>0.33691383600304597</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>83</v>
       </c>
@@ -3105,11 +3087,14 @@
       <c r="C196">
         <v>2.6338285145266101E-2</v>
       </c>
-      <c r="F196" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>83</v>
       </c>
@@ -3120,7 +3105,7 @@
         <v>0.282237984330381</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>84</v>
       </c>
@@ -3131,7 +3116,7 @@
         <v>0.16645798952857799</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>84</v>
       </c>
@@ -3141,11 +3126,14 @@
       <c r="C199">
         <v>0.160406861052619</v>
       </c>
-      <c r="F199" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D199">
+        <v>3</v>
+      </c>
+      <c r="E199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>85</v>
       </c>
@@ -3162,7 +3150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>85</v>
       </c>
@@ -3173,7 +3161,7 @@
         <v>0.143324065527586</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>85</v>
       </c>
@@ -3184,7 +3172,7 @@
         <v>5.7505113079979298E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>86</v>
       </c>
@@ -3195,7 +3183,7 @@
         <v>0.54926627708224496</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>86</v>
       </c>
@@ -3206,7 +3194,7 @@
         <v>0.13561072233142901</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>86</v>
       </c>
@@ -3217,7 +3205,7 @@
         <v>0.278247535886671</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>87</v>
       </c>
@@ -3228,7 +3216,7 @@
         <v>0.59567342700159498</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>87</v>
       </c>
@@ -3239,7 +3227,7 @@
         <v>0.365919079459952</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>87</v>
       </c>
@@ -3316,7 +3304,7 @@
         <v>2.5012743414009799E-2</v>
       </c>
       <c r="F214" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
